--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.748583042700514</v>
+        <v>0.7651113333333334</v>
       </c>
       <c r="N2">
-        <v>0.748583042700514</v>
+        <v>2.295334</v>
       </c>
       <c r="O2">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="P2">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="Q2">
-        <v>140.8711126786469</v>
+        <v>155.9156611619996</v>
       </c>
       <c r="R2">
-        <v>140.8711126786469</v>
+        <v>1403.240950457996</v>
       </c>
       <c r="S2">
-        <v>0.09013419176305078</v>
+        <v>0.0886926545849414</v>
       </c>
       <c r="T2">
-        <v>0.09013419176305078</v>
+        <v>0.08869265458494142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.759910977179734</v>
+        <v>0.8520123333333333</v>
       </c>
       <c r="N3">
-        <v>0.759910977179734</v>
+        <v>2.556037</v>
       </c>
       <c r="O3">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="P3">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="Q3">
-        <v>143.002845089632</v>
+        <v>173.6244916031976</v>
       </c>
       <c r="R3">
-        <v>143.002845089632</v>
+        <v>1562.620424428778</v>
       </c>
       <c r="S3">
-        <v>0.09149814761081605</v>
+        <v>0.09876632627205009</v>
       </c>
       <c r="T3">
-        <v>0.09149814761081605</v>
+        <v>0.09876632627205012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.89749695331127</v>
+        <v>4.134477666666666</v>
       </c>
       <c r="N4">
-        <v>3.89749695331127</v>
+        <v>12.403433</v>
       </c>
       <c r="O4">
-        <v>0.7209588348628554</v>
+        <v>0.7188394026382449</v>
       </c>
       <c r="P4">
-        <v>0.7209588348628554</v>
+        <v>0.718839402638245</v>
       </c>
       <c r="Q4">
-        <v>733.4453242407353</v>
+        <v>842.530741440489</v>
       </c>
       <c r="R4">
-        <v>733.4453242407353</v>
+        <v>7582.776672964403</v>
       </c>
       <c r="S4">
-        <v>0.469283590125629</v>
+        <v>0.4792737783418288</v>
       </c>
       <c r="T4">
-        <v>0.469283590125629</v>
+        <v>0.4792737783418289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.748583042700514</v>
+        <v>0.7651113333333334</v>
       </c>
       <c r="N5">
-        <v>0.748583042700514</v>
+        <v>2.295334</v>
       </c>
       <c r="O5">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="P5">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="Q5">
-        <v>47.00843048425581</v>
+        <v>48.30958049227911</v>
       </c>
       <c r="R5">
-        <v>47.00843048425581</v>
+        <v>434.786224430512</v>
       </c>
       <c r="S5">
-        <v>0.03007761355171157</v>
+        <v>0.02748091438545893</v>
       </c>
       <c r="T5">
-        <v>0.03007761355171157</v>
+        <v>0.02748091438545894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.759910977179734</v>
+        <v>0.8520123333333333</v>
       </c>
       <c r="N6">
-        <v>0.759910977179734</v>
+        <v>2.556037</v>
       </c>
       <c r="O6">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="P6">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="Q6">
-        <v>47.71978565812616</v>
+        <v>53.7965608459351</v>
       </c>
       <c r="R6">
-        <v>47.71978565812616</v>
+        <v>484.169047613416</v>
       </c>
       <c r="S6">
-        <v>0.03053276310248946</v>
+        <v>0.03060218424118899</v>
       </c>
       <c r="T6">
-        <v>0.03053276310248946</v>
+        <v>0.03060218424118899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.89749695331127</v>
+        <v>4.134477666666666</v>
       </c>
       <c r="N7">
-        <v>3.89749695331127</v>
+        <v>12.403433</v>
       </c>
       <c r="O7">
-        <v>0.7209588348628554</v>
+        <v>0.7188394026382449</v>
       </c>
       <c r="P7">
-        <v>0.7209588348628554</v>
+        <v>0.718839402638245</v>
       </c>
       <c r="Q7">
-        <v>244.7493519641891</v>
+        <v>261.0533564588382</v>
       </c>
       <c r="R7">
-        <v>244.7493519641891</v>
+        <v>2349.480208129544</v>
       </c>
       <c r="S7">
-        <v>0.156599068498495</v>
+        <v>0.1485002532785102</v>
       </c>
       <c r="T7">
-        <v>0.156599068498495</v>
+        <v>0.1485002532785103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H8">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.748583042700514</v>
+        <v>0.7651113333333334</v>
       </c>
       <c r="N8">
-        <v>0.748583042700514</v>
+        <v>2.295334</v>
       </c>
       <c r="O8">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="P8">
-        <v>0.1384728621288421</v>
+        <v>0.1330257938600752</v>
       </c>
       <c r="Q8">
-        <v>28.54028356797163</v>
+        <v>29.62506645020933</v>
       </c>
       <c r="R8">
-        <v>28.54028356797163</v>
+        <v>266.625598051884</v>
       </c>
       <c r="S8">
-        <v>0.01826105681407977</v>
+        <v>0.01685222488967481</v>
       </c>
       <c r="T8">
-        <v>0.01826105681407977</v>
+        <v>0.01685222488967481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H9">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.759910977179734</v>
+        <v>0.8520123333333333</v>
       </c>
       <c r="N9">
-        <v>0.759910977179734</v>
+        <v>2.556037</v>
       </c>
       <c r="O9">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="P9">
-        <v>0.1405683030083026</v>
+        <v>0.1481348035016799</v>
       </c>
       <c r="Q9">
-        <v>28.97216946951441</v>
+        <v>32.98986812995133</v>
       </c>
       <c r="R9">
-        <v>28.97216946951441</v>
+        <v>296.908813169562</v>
       </c>
       <c r="S9">
-        <v>0.0185373922949971</v>
+        <v>0.01876629298844077</v>
       </c>
       <c r="T9">
-        <v>0.0185373922949971</v>
+        <v>0.01876629298844078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H10">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.89749695331127</v>
+        <v>4.134477666666666</v>
       </c>
       <c r="N10">
-        <v>3.89749695331127</v>
+        <v>12.403433</v>
       </c>
       <c r="O10">
-        <v>0.7209588348628554</v>
+        <v>0.7188394026382449</v>
       </c>
       <c r="P10">
-        <v>0.7209588348628554</v>
+        <v>0.718839402638245</v>
       </c>
       <c r="Q10">
-        <v>148.5949612905021</v>
+        <v>160.0867354536286</v>
       </c>
       <c r="R10">
-        <v>148.5949612905021</v>
+        <v>1440.780619082658</v>
       </c>
       <c r="S10">
-        <v>0.09507617623873145</v>
+        <v>0.09106537101790579</v>
       </c>
       <c r="T10">
-        <v>0.09507617623873145</v>
+        <v>0.09106537101790584</v>
       </c>
     </row>
   </sheetData>
